--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69255</v>
+        <v>13918</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luigi da Luz</t>
+          <t>Luna da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>4019.68</v>
+        <v>9619.549999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>977</v>
+        <v>34866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Julia da Rosa</t>
+          <t>Yasmin Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>9567.219999999999</v>
+        <v>6764.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42573</v>
+        <v>70364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi da Luz</t>
+          <t>Vitor Hugo Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>5722.28</v>
+        <v>11341.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98763</v>
+        <v>45634</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camila Cavalcanti</t>
+          <t>Pedro Miguel Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5467.27</v>
+        <v>10203.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99419</v>
+        <v>82763</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. João Miguel Monteiro</t>
+          <t>Pedro Miguel Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>8183.56</v>
+        <v>4654.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8522</v>
+        <v>45632</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Joaquim Rezende</t>
+          <t>Giovanna Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>8416.950000000001</v>
+        <v>6890.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92463</v>
+        <v>41738</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Lívia Barros</t>
+          <t>Augusto Pinto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>8923.469999999999</v>
+        <v>9390.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93791</v>
+        <v>48664</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bryan da Costa</t>
+          <t>Beatriz Cardoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>9022.23</v>
+        <v>2842.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27480</v>
+        <v>15995</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marcela da Costa</t>
+          <t>Dra. Luiza Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>7540.73</v>
+        <v>7202.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18432</v>
+        <v>11077</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Julia das Neves</t>
+          <t>Sr. João Guilherme da Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>10783.37</v>
+        <v>7917.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13918</v>
+        <v>96010</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luna da Rocha</t>
+          <t>Laura Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,143 +494,143 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>9619.549999999999</v>
+        <v>4659.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34866</v>
+        <v>99128</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yasmin Rocha</t>
+          <t>Gabriela Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>6764.73</v>
+        <v>3187.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70364</v>
+        <v>7787</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Hugo Cardoso</t>
+          <t>Ana Vitória da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>11341.66</v>
+        <v>12152.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45634</v>
+        <v>8763</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pedro Miguel Caldeira</t>
+          <t>João Vitor da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>10203.73</v>
+        <v>8608.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82763</v>
+        <v>79755</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pedro Miguel Ramos</t>
+          <t>Eloah Duarte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>4654.88</v>
+        <v>12023.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>45632</v>
+        <v>38525</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Giovanna Cardoso</t>
+          <t>Theo Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>6890.95</v>
+        <v>12299.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41738</v>
+        <v>93421</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Augusto Pinto</t>
+          <t>Lucas da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>9390.82</v>
+        <v>9719.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48664</v>
+        <v>60472</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beatriz Cardoso</t>
+          <t>Ana Carolina Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>2842.81</v>
+        <v>6090.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15995</v>
+        <v>50929</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Luiza Duarte</t>
+          <t>Enrico Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>7202.74</v>
+        <v>4723.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11077</v>
+        <v>69197</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sr. João Guilherme da Costa</t>
+          <t>Srta. Nicole Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>7917.4</v>
+        <v>6257.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96010</v>
+        <v>97402</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laura Vieira</t>
+          <t>Ana Julia Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,230 +494,230 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>4659.38</v>
+        <v>5008.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99128</v>
+        <v>26797</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gabriela Ribeiro</t>
+          <t>Francisco Correia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>3187.74</v>
+        <v>4478.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7787</v>
+        <v>32074</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória da Cruz</t>
+          <t>Thiago Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>12152.21</v>
+        <v>10246.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8763</v>
+        <v>98852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Vitor da Cruz</t>
+          <t>Juliana da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>8608.57</v>
+        <v>10949.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79755</v>
+        <v>83488</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eloah Duarte</t>
+          <t>Clarice da Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>12023.47</v>
+        <v>11074.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38525</v>
+        <v>12454</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo Costa</t>
+          <t>Nina Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>12299.25</v>
+        <v>10131.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93421</v>
+        <v>51474</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas da Conceição</t>
+          <t>Mariana Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>9719.65</v>
+        <v>5178.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60472</v>
+        <v>90858</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Carolina Fogaça</t>
+          <t>Arthur Freitas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>6090.01</v>
+        <v>3440.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50929</v>
+        <v>34688</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enrico Caldeira</t>
+          <t>Vitor Gabriel Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>4723.62</v>
+        <v>9810.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69197</v>
+        <v>44741</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Srta. Nicole Moreira</t>
+          <t>Kaique Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>6257.75</v>
+        <v>2684.72</v>
       </c>
     </row>
   </sheetData>
